--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H2">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I2">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J2">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>159.0391654359534</v>
+        <v>246.7456776091769</v>
       </c>
       <c r="R2">
-        <v>1431.35248892358</v>
+        <v>2220.711098482592</v>
       </c>
       <c r="S2">
-        <v>0.04284235914436461</v>
+        <v>0.04761027759020867</v>
       </c>
       <c r="T2">
-        <v>0.04284235914436461</v>
+        <v>0.04761027759020867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H3">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I3">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J3">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>94.83973129437001</v>
+        <v>96.72613891386801</v>
       </c>
       <c r="R3">
-        <v>853.5575816493301</v>
+        <v>870.5352502248121</v>
       </c>
       <c r="S3">
-        <v>0.02554815864463719</v>
+        <v>0.01866358255406808</v>
       </c>
       <c r="T3">
-        <v>0.02554815864463719</v>
+        <v>0.01866358255406808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H4">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I4">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J4">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>34.27622427931668</v>
+        <v>39.09789745162801</v>
       </c>
       <c r="R4">
-        <v>308.4860185138501</v>
+        <v>351.8810770646521</v>
       </c>
       <c r="S4">
-        <v>0.009233413082003653</v>
+        <v>0.00754405008793674</v>
       </c>
       <c r="T4">
-        <v>0.009233413082003653</v>
+        <v>0.007544050087936738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H5">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I5">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J5">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>98.86445957773003</v>
+        <v>102.5434152719484</v>
       </c>
       <c r="R5">
-        <v>889.7801361995702</v>
+        <v>922.8907374475359</v>
       </c>
       <c r="S5">
-        <v>0.026632349787753</v>
+        <v>0.01978604250923638</v>
       </c>
       <c r="T5">
-        <v>0.026632349787753</v>
+        <v>0.01978604250923637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.767257</v>
       </c>
       <c r="I6">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J6">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>550.1388633858185</v>
+        <v>836.882052330673</v>
       </c>
       <c r="R6">
-        <v>4951.249770472366</v>
+        <v>7531.938470976057</v>
       </c>
       <c r="S6">
-        <v>0.1481977517917707</v>
+        <v>0.1614787631045619</v>
       </c>
       <c r="T6">
-        <v>0.1481977517917707</v>
+        <v>0.1614787631045619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.767257</v>
       </c>
       <c r="I7">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J7">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>328.063982447849</v>
       </c>
       <c r="R7">
-        <v>2952.575842030641</v>
+        <v>2952.575842030642</v>
       </c>
       <c r="S7">
-        <v>0.08837467751942758</v>
+        <v>0.06330087490501406</v>
       </c>
       <c r="T7">
-        <v>0.0883746775194276</v>
+        <v>0.06330087490501406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18.767257</v>
       </c>
       <c r="I8">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J8">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>118.5662853202939</v>
+        <v>132.607504934529</v>
       </c>
       <c r="R8">
-        <v>1067.096567882645</v>
+        <v>1193.467544410761</v>
       </c>
       <c r="S8">
-        <v>0.03193967576590979</v>
+        <v>0.02558699378911869</v>
       </c>
       <c r="T8">
-        <v>0.03193967576590979</v>
+        <v>0.02558699378911869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18.767257</v>
       </c>
       <c r="I9">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J9">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>341.9860841966544</v>
+        <v>347.7943146048164</v>
       </c>
       <c r="R9">
-        <v>3077.874757769889</v>
+        <v>3130.148831443348</v>
       </c>
       <c r="S9">
-        <v>0.09212504732004695</v>
+        <v>0.06710789839593054</v>
       </c>
       <c r="T9">
-        <v>0.09212504732004696</v>
+        <v>0.06710789839593052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H10">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I10">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J10">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>486.5921138606747</v>
+        <v>765.3471193353965</v>
       </c>
       <c r="R10">
-        <v>4379.329024746072</v>
+        <v>6888.124074018569</v>
       </c>
       <c r="S10">
-        <v>0.131079373069458</v>
+        <v>0.1476758951058099</v>
       </c>
       <c r="T10">
-        <v>0.131079373069458</v>
+        <v>0.1476758951058098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H11">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I11">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J11">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>290.169186954708</v>
+        <v>300.021757217647</v>
       </c>
       <c r="R11">
-        <v>2611.522682592371</v>
+        <v>2700.195814958823</v>
       </c>
       <c r="S11">
-        <v>0.0781664848785199</v>
+        <v>0.05789004809583385</v>
       </c>
       <c r="T11">
-        <v>0.07816648487851992</v>
+        <v>0.05789004809583384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H12">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I12">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J12">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>104.8706485695933</v>
+        <v>121.272491889687</v>
       </c>
       <c r="R12">
-        <v>943.83583712634</v>
+        <v>1091.452427007183</v>
       </c>
       <c r="S12">
-        <v>0.02825031166005647</v>
+        <v>0.02339987090703789</v>
       </c>
       <c r="T12">
-        <v>0.02825031166005647</v>
+        <v>0.02339987090703788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H13">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I13">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J13">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>302.483141430932</v>
+        <v>318.0655817181382</v>
       </c>
       <c r="R13">
-        <v>2722.348272878387</v>
+        <v>2862.590235463244</v>
       </c>
       <c r="S13">
-        <v>0.08148364803585677</v>
+        <v>0.06137165515611268</v>
       </c>
       <c r="T13">
-        <v>0.08148364803585678</v>
+        <v>0.06137165515611267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H14">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I14">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J14">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>329.6934977912143</v>
+        <v>787.0855988420543</v>
       </c>
       <c r="R14">
-        <v>2967.241480120928</v>
+        <v>7083.770389578489</v>
       </c>
       <c r="S14">
-        <v>0.0888136403458505</v>
+        <v>0.1518703963174597</v>
       </c>
       <c r="T14">
-        <v>0.0888136403458505</v>
+        <v>0.1518703963174596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H15">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I15">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J15">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>196.605928195792</v>
+        <v>308.543402698577</v>
       </c>
       <c r="R15">
-        <v>1769.453353762128</v>
+        <v>2776.890624287193</v>
       </c>
       <c r="S15">
-        <v>0.05296218552572404</v>
+        <v>0.05953432373544625</v>
       </c>
       <c r="T15">
-        <v>0.05296218552572404</v>
+        <v>0.05953432373544625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H16">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I16">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J16">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>71.05575688068446</v>
+        <v>124.717046018217</v>
       </c>
       <c r="R16">
-        <v>639.5018119261601</v>
+        <v>1122.453414163953</v>
       </c>
       <c r="S16">
-        <v>0.01914117347894955</v>
+        <v>0.02406450738546718</v>
       </c>
       <c r="T16">
-        <v>0.01914117347894955</v>
+        <v>0.02406450738546717</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H17">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I17">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J17">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>204.9493242502347</v>
+        <v>327.0997336150671</v>
       </c>
       <c r="R17">
-        <v>1844.543918252112</v>
+        <v>2943.897602535604</v>
       </c>
       <c r="S17">
-        <v>0.05520974994967127</v>
+        <v>0.06311482036075779</v>
       </c>
       <c r="T17">
-        <v>0.05520974994967128</v>
+        <v>0.06311482036075777</v>
       </c>
     </row>
   </sheetData>
